--- a/src/equation_parser/fixtures/equations.xlsx
+++ b/src/equation_parser/fixtures/equations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parser\src\equation_parser\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08389E98-38D0-4843-B25A-45077D42315C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01213A8F-4033-4ABE-8E1B-6B7504B801D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{BA14D2F2-1185-4AB7-A5D1-CB935674C1BD}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -693,18 +693,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -822,14 +822,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B9BF4A5-076F-4AC2-B9A1-207918C95FB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9843A8-DDA2-4AEA-B854-6294F765A57C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -840,6 +832,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B9BF4A5-076F-4AC2-B9A1-207918C95FB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
